--- a/zifra_case_1_2.xlsx
+++ b/zifra_case_1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Пользователи\L\Цифра\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A81FB7B-4E30-45D6-BC57-1267D9981903}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01857E3A-07D7-443D-BB91-91D2A03ECF12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{54D9A807-9F86-4FB9-A3C0-33A587BB6AB5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Критерии оценки соответствия ПО задачам</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Результат опроса по итогам ИТ-аудита</t>
   </si>
   <si>
-    <t>Оценка соответствия ПО задачам</t>
-  </si>
-  <si>
     <t>Планирование работы производственного оборудования</t>
   </si>
   <si>
@@ -117,6 +114,56 @@
   </si>
   <si>
     <t>КЕЙС 1.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Оценка соответствия ПО задачам 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>после проекта</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Оценка соответствия ПО задачам 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>до проекта</t>
+    </r>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>Точное планирование работы основного оборудования крупного машиностроительного предприятия позволит получить значительный экономический эффект при его  ремонте и обслуживании, а также может снизить инвестиции в основной капитал</t>
+  </si>
+  <si>
+    <t>Автоматизация необходима для создания "цифрового слоя". Кроме того, анализ накопленных данных позволит осуществить оптимизацию производственных процессов</t>
+  </si>
+  <si>
+    <t>Относительно небольшие инвестиции для приобретения дополнительного модуля действующей системы MES позволят качественно улучшить систему оперативного контроля производственных процессов на стыках технологических подразделений. Низкие риски и короткие сроки внедрения</t>
+  </si>
+  <si>
+    <t>Реализация предыдущих пунктов позволяет создать на предприятии полноценный "цифровой слой" и накапливать big data. Реализация данного пункта позволит внедрить системы ИИ и начать переход к концепции "сельскохозяйственная техника как услуга". Наличие компетенций снижает сроки и риски внедрения.</t>
+  </si>
+  <si>
+    <t>Предлагаемый план автоматизации основных производственных процессов позволяет выйти на решение стратегических задач развития предприятия</t>
   </si>
 </sst>
 </file>
@@ -126,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -164,13 +211,44 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -201,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -222,10 +300,25 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E78E957-B70B-404A-9C1B-506712401C80}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -553,212 +646,272 @@
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="53.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="G4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="F7" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="F11" s="11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10">
+        <f>SUM(E$5:E$12)/(MAX($B$17:$B$20)*COUNT(E$5:E$12))</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F13" s="7">
+        <f>SUM(F$5:F$12)/(MAX($B$17:$B$20)*COUNT(F$5:F$12))</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="14" t="str">
+        <f>IF(E$13&lt;50%,"низкий уровень",IF(E$13&gt;80%,"высокий уровень","средний уровень"))</f>
+        <v>средний уровень</v>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f>IF(F$13&lt;50%,"низкий уровень",IF(F$13&gt;80%,"высокий уровень","средний уровень"))</f>
+        <v>высокий уровень</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
-        <v>9</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7">
-        <f>SUM($E$11:$E$18)/(MAX($B$4:$B$7)*COUNT($E$11:$E$18))</f>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8" t="str">
-        <f>IF($E$19&lt;50%,"низкий уровень",IF($E$19&gt;80%,"высокий уровень","средний уровень"))</f>
-        <v>средний уровень</v>
+      <c r="C20" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
+  <mergeCells count="3">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
